--- a/models/type3and5and10/Best_ExtremeRandomTrees/ConfusionMatrix.xlsx
+++ b/models/type3and5and10/Best_ExtremeRandomTrees/ConfusionMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\models\type3and5and10\Best_ExtremeRandomTrees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF2091-698C-4686-93F3-CEE29B01D1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42DB7AC-306B-4EA0-B9F7-08E11C919FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="5880" windowWidth="14325" windowHeight="8010" xr2:uid="{58F82BB8-7E1E-49C1-9D4C-A63F24EF3551}"/>
+    <workbookView xWindow="14475" yWindow="3600" windowWidth="14325" windowHeight="8010" xr2:uid="{58F82BB8-7E1E-49C1-9D4C-A63F24EF3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,16 +41,16 @@
     <t>True Label</t>
   </si>
   <si>
-    <t>17 (0.8095)</t>
-  </si>
-  <si>
-    <t>4 (0.1905)</t>
-  </si>
-  <si>
     <t>13 (0.9286)</t>
   </si>
   <si>
     <t>1 (0.0714)</t>
+  </si>
+  <si>
+    <t>16 (0.7619)</t>
+  </si>
+  <si>
+    <t>5 (0.2381)</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
